--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -495,7 +495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>93.3</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -581,7 +581,7 @@
         <v>194.6</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -629,7 +629,7 @@
         <v>194.6</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">

--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -495,7 +495,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
         <v>93.3</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>190.6</v>
+        <v>185.6</v>
       </c>
       <c r="E4" t="n">
         <v>6</v>
@@ -527,13 +527,13 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
         <v>6</v>
@@ -552,7 +552,7 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E6" t="n">
         <v>3</v>
@@ -565,7 +565,7 @@
         <v>14.1</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E7" t="n">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>194.6</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -591,7 +591,7 @@
         <v>17.8</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -626,10 +626,10 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>194.6</v>
+        <v>190</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -637,10 +637,10 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>195</v>
+        <v>194.6</v>
       </c>
       <c r="E13" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">

--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>93.3</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>185.6</v>
+        <v>690.6</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -527,16 +527,16 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -552,33 +552,33 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>190</v>
+        <v>695</v>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>14.1</v>
+        <v>12.2</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>190</v>
+        <v>695</v>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>194.6</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>4</v>
@@ -587,11 +587,9 @@
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n">
-        <v>17.8</v>
-      </c>
+      <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n">
-        <v>190</v>
+        <v>695</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -600,9 +598,11 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n"/>
+      <c r="C10" s="1" t="n">
+        <v>19.8</v>
+      </c>
       <c r="D10" s="1" t="n">
-        <v>195.6</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -615,10 +615,10 @@
         <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>79.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -626,10 +626,10 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>190</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -637,70 +637,59 @@
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n">
-        <v>194.6</v>
+        <v>695</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D14" s="1" t="n">
-        <v>195.6</v>
+        <v>5</v>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D16" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A14"/>
+    <mergeCell ref="A6:A13"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B14"/>
+    <mergeCell ref="B6:B13"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C11:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>39.6</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>89.59999999999999</v>
+        <v>127.8666666666667</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -514,10 +514,10 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>690.6</v>
+        <v>290.6</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -552,44 +552,46 @@
         <v>7.5</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>12.2</v>
+        <v>21.4</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>12.8</v>
+        <v>34.8</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>394.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>37.8</v>
+      </c>
       <c r="D9" s="1" t="n">
-        <v>695</v>
+        <v>295</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -598,11 +600,9 @@
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="n">
-        <v>19.8</v>
-      </c>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>94.59999999999999</v>
+        <v>395.6</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -612,13 +612,13 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>76</v>
+        <v>110.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -626,70 +626,59 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
-        <v>95.59999999999999</v>
+        <v>295</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="n"/>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>scharnier</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D13" s="1" t="n">
-        <v>695</v>
+        <v>5</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>scharnier</t>
+          <t>slot</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>slot</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A6:A12"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="B6:B12"/>
     <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -492,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>69.59999999999999</v>
+        <v>67.994</v>
       </c>
       <c r="E2" t="n">
         <v>12</v>
@@ -503,7 +503,7 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>127.8666666666667</v>
+        <v>127.3313333333333</v>
       </c>
       <c r="E3" t="n">
         <v>3</v>
@@ -514,7 +514,7 @@
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n">
-        <v>290.6</v>
+        <v>288.994</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>2.2</v>
+        <v>3.003</v>
       </c>
       <c r="C6" s="1" t="n">
         <v>7.5</v>
@@ -575,10 +575,10 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>34.8</v>
+        <v>33.997</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>394.6</v>
+        <v>392.994</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -588,7 +588,7 @@
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>37.8</v>
+        <v>36.997</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>295</v>
@@ -602,7 +602,7 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>395.6</v>
+        <v>393.994</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>

--- a/stuklijst-FINAL.xlsx
+++ b/stuklijst-FINAL.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>67.994</v>
+        <v>63.994</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -503,10 +503,10 @@
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n">
-        <v>127.3313333333333</v>
+        <v>89.497</v>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -517,7 +517,7 @@
         <v>288.994</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -549,23 +549,23 @@
         <v>3.003</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>7.5</v>
+        <v>8.003</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>295</v>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="1" t="n">
-        <v>21.4</v>
+        <v>11.997</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>295</v>
+        <v>192.994</v>
       </c>
       <c r="E7" t="n">
         <v>6</v>
@@ -575,23 +575,23 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="1" t="n">
-        <v>33.997</v>
+        <v>13.7</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>392.994</v>
+        <v>295</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="1" t="n">
-        <v>36.997</v>
+        <v>16.997</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>295</v>
+        <v>193.994</v>
       </c>
       <c r="E9" t="n">
         <v>4</v>
@@ -602,7 +602,7 @@
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n">
-        <v>393.994</v>
+        <v>295</v>
       </c>
       <c r="E10" t="n">
         <v>4</v>
@@ -612,13 +612,13 @@
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="1" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>110.5</v>
+        <v>78.7</v>
       </c>
       <c r="E11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -626,59 +626,81 @@
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n">
+        <v>192.994</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="1" t="n"/>
+      <c r="C13" s="1" t="n"/>
+      <c r="D13" s="1" t="n">
+        <v>193.994</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="n"/>
+      <c r="C14" s="1" t="n"/>
+      <c r="D14" s="1" t="n">
         <v>295</v>
       </c>
-      <c r="E12" t="n">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="E14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>scharnier</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C15" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D15" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="E15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>slot</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="C16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D16" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>3</v>
+      <c r="E16" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A6:A14"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B6:B14"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C11:C14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
